--- a/data-migration/xlsx_1900-/1901_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1901_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8835B618-707A-4634-A1F6-76A2D753CF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5F4A31-E0BC-4702-88AC-745CE7ACB15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="970">
   <si>
     <t>1901</t>
   </si>
@@ -2741,9 +2741,6 @@
     <t>meyerrueegg_h</t>
   </si>
   <si>
-    <t>fick_ae</t>
-  </si>
-  <si>
     <t>bleuler_e</t>
   </si>
   <si>
@@ -2840,9 +2837,6 @@
     <t>billeter_g</t>
   </si>
   <si>
-    <t>meyervonknonau_g</t>
-  </si>
-  <si>
     <t>schweizer_p</t>
   </si>
   <si>
@@ -2900,9 +2894,6 @@
     <t>dodel_a</t>
   </si>
   <si>
-    <t>schinz_h1</t>
-  </si>
-  <si>
     <t>kuendig_j</t>
   </si>
   <si>
@@ -2940,6 +2931,18 @@
   </si>
   <si>
     <t>Doz</t>
+  </si>
+  <si>
+    <t>fick_age</t>
+  </si>
+  <si>
+    <t>meyer-knonau_g</t>
+  </si>
+  <si>
+    <t>schinz_h</t>
+  </si>
+  <si>
+    <t>HP</t>
   </si>
 </sst>
 </file>
@@ -3292,20 +3295,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E302" workbookViewId="0">
-      <selection activeCell="L316" sqref="L316"/>
+    <sheetView tabSelected="1" topLeftCell="E84" workbookViewId="0">
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="103.33203125" customWidth="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="103.28515625" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3464,7 +3467,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3516,7 +3519,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3542,7 +3545,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3698,7 +3701,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3782,7 +3785,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3808,7 +3811,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3863,7 +3866,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3889,7 +3892,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3967,7 +3970,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -4071,7 +4074,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -4097,7 +4100,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -4178,7 +4181,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -4230,7 +4233,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -4360,7 +4363,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>781</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -4438,7 +4441,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -4542,7 +4545,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4594,7 +4597,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4620,7 +4623,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -4672,7 +4675,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -4698,7 +4701,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -4776,7 +4779,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -4802,7 +4805,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -4863,7 +4866,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -4921,7 +4924,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -4999,7 +5002,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -5025,7 +5028,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -5051,7 +5054,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -5077,7 +5080,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -5155,7 +5158,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -5207,7 +5210,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -5233,7 +5236,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -5259,7 +5262,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -5285,7 +5288,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -5311,7 +5314,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -5389,7 +5392,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -5415,7 +5418,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -5441,7 +5444,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -5493,7 +5496,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -5519,7 +5522,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -5545,7 +5548,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -5597,7 +5600,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -5623,7 +5626,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -5649,7 +5652,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -5675,7 +5678,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -5701,7 +5704,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5727,7 +5730,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -5753,7 +5756,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -5805,7 +5808,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -5831,7 +5834,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -5935,7 +5938,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -5961,7 +5964,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -6013,7 +6016,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -6036,10 +6039,10 @@
         <v>890</v>
       </c>
       <c r="I104" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -6065,7 +6068,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -6091,7 +6094,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -6117,7 +6120,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -6195,7 +6198,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -6221,7 +6224,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -6273,7 +6276,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -6351,7 +6354,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -6455,7 +6458,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -6559,7 +6562,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -6611,7 +6614,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -6657,13 +6660,13 @@
         <v>317</v>
       </c>
       <c r="H128" t="s">
-        <v>902</v>
+        <v>966</v>
       </c>
       <c r="I128" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -6683,13 +6686,13 @@
         <v>320</v>
       </c>
       <c r="H129" t="s">
-        <v>902</v>
+        <v>966</v>
       </c>
       <c r="I129" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -6709,13 +6712,13 @@
         <v>32</v>
       </c>
       <c r="H130" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="I130" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -6735,13 +6738,13 @@
         <v>56</v>
       </c>
       <c r="H131" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="I131" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -6761,13 +6764,13 @@
         <v>323</v>
       </c>
       <c r="H132" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I132" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -6787,13 +6790,13 @@
         <v>326</v>
       </c>
       <c r="H133" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I133" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -6813,19 +6816,19 @@
         <v>329</v>
       </c>
       <c r="H134" t="s">
+        <v>902</v>
+      </c>
+      <c r="I134" t="s">
+        <v>845</v>
+      </c>
+      <c r="K134" t="s">
         <v>903</v>
-      </c>
-      <c r="I134" t="s">
-        <v>845</v>
-      </c>
-      <c r="K134" t="s">
-        <v>904</v>
       </c>
       <c r="L134" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -6845,13 +6848,13 @@
         <v>332</v>
       </c>
       <c r="H135" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I135" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -6871,13 +6874,13 @@
         <v>171</v>
       </c>
       <c r="H136" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I136" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -6897,13 +6900,13 @@
         <v>337</v>
       </c>
       <c r="H137" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I137" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -6923,13 +6926,13 @@
         <v>32</v>
       </c>
       <c r="H138" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I138" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -6949,13 +6952,13 @@
         <v>56</v>
       </c>
       <c r="H139" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I139" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -6975,13 +6978,13 @@
         <v>344</v>
       </c>
       <c r="H140" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I140" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -7001,13 +7004,13 @@
         <v>216</v>
       </c>
       <c r="H141" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I141" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -7027,13 +7030,13 @@
         <v>349</v>
       </c>
       <c r="H142" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I142" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -7053,13 +7056,13 @@
         <v>352</v>
       </c>
       <c r="H143" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I143" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -7079,13 +7082,13 @@
         <v>355</v>
       </c>
       <c r="H144" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I144" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -7105,13 +7108,13 @@
         <v>358</v>
       </c>
       <c r="H145" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I145" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -7131,13 +7134,13 @@
         <v>140</v>
       </c>
       <c r="H146" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I146" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -7157,13 +7160,13 @@
         <v>140</v>
       </c>
       <c r="H147" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I147" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -7183,13 +7186,13 @@
         <v>365</v>
       </c>
       <c r="H148" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I148" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -7209,13 +7212,13 @@
         <v>64</v>
       </c>
       <c r="H149" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I149" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -7235,13 +7238,13 @@
         <v>369</v>
       </c>
       <c r="H150" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I150" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -7261,13 +7264,13 @@
         <v>32</v>
       </c>
       <c r="H151" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I151" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -7287,13 +7290,13 @@
         <v>374</v>
       </c>
       <c r="H152" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I152" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -7313,13 +7316,13 @@
         <v>377</v>
       </c>
       <c r="H153" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I153" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -7339,13 +7342,13 @@
         <v>380</v>
       </c>
       <c r="H154" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I154" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -7365,13 +7368,13 @@
         <v>383</v>
       </c>
       <c r="H155" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I155" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -7391,13 +7394,13 @@
         <v>32</v>
       </c>
       <c r="H156" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I156" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -7417,13 +7420,13 @@
         <v>387</v>
       </c>
       <c r="H157" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I157" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -7443,13 +7446,13 @@
         <v>390</v>
       </c>
       <c r="H158" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I158" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -7469,13 +7472,13 @@
         <v>174</v>
       </c>
       <c r="H159" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I159" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -7495,13 +7498,13 @@
         <v>394</v>
       </c>
       <c r="H160" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I160" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -7521,13 +7524,13 @@
         <v>25</v>
       </c>
       <c r="H161" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I161" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -7547,13 +7550,13 @@
         <v>399</v>
       </c>
       <c r="H162" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I162" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -7573,13 +7576,13 @@
         <v>32</v>
       </c>
       <c r="H163" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I163" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -7599,13 +7602,13 @@
         <v>227</v>
       </c>
       <c r="H164" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I164" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -7625,13 +7628,13 @@
         <v>32</v>
       </c>
       <c r="H165" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I165" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -7683,7 +7686,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -7703,13 +7706,13 @@
         <v>123</v>
       </c>
       <c r="H168" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I168" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -7729,13 +7732,13 @@
         <v>412</v>
       </c>
       <c r="H169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I169" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -7755,13 +7758,13 @@
         <v>32</v>
       </c>
       <c r="H170" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I170" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -7781,13 +7784,13 @@
         <v>29</v>
       </c>
       <c r="H171" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I171" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -7807,13 +7810,13 @@
         <v>419</v>
       </c>
       <c r="H172" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I172" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -7833,13 +7836,13 @@
         <v>421</v>
       </c>
       <c r="H173" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I173" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -7859,13 +7862,13 @@
         <v>424</v>
       </c>
       <c r="H174" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I174" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -7885,13 +7888,13 @@
         <v>29</v>
       </c>
       <c r="H175" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I175" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -7911,13 +7914,13 @@
         <v>429</v>
       </c>
       <c r="H176" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I176" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -7937,13 +7940,13 @@
         <v>432</v>
       </c>
       <c r="H177" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I177" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -7963,13 +7966,13 @@
         <v>32</v>
       </c>
       <c r="H178" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I178" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -7989,13 +7992,13 @@
         <v>437</v>
       </c>
       <c r="H179" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I179" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -8015,13 +8018,13 @@
         <v>440</v>
       </c>
       <c r="H180" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I180" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -8041,13 +8044,13 @@
         <v>204</v>
       </c>
       <c r="H181" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I181" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -8067,13 +8070,13 @@
         <v>445</v>
       </c>
       <c r="H182" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I182" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -8093,13 +8096,13 @@
         <v>448</v>
       </c>
       <c r="H183" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I183" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -8119,13 +8122,13 @@
         <v>451</v>
       </c>
       <c r="H184" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I184" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -8145,13 +8148,13 @@
         <v>454</v>
       </c>
       <c r="H185" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I185" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -8171,13 +8174,13 @@
         <v>457</v>
       </c>
       <c r="H186" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I186" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -8197,13 +8200,13 @@
         <v>460</v>
       </c>
       <c r="H187" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I187" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -8223,13 +8226,13 @@
         <v>32</v>
       </c>
       <c r="H188" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I188" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -8249,13 +8252,13 @@
         <v>465</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I189" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -8275,13 +8278,13 @@
         <v>468</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I190" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -8301,13 +8304,13 @@
         <v>56</v>
       </c>
       <c r="H191" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I191" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -8327,13 +8330,13 @@
         <v>472</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I192" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -8353,13 +8356,13 @@
         <v>151</v>
       </c>
       <c r="H193" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I193" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -8379,13 +8382,13 @@
         <v>72</v>
       </c>
       <c r="H194" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I194" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -8405,13 +8408,13 @@
         <v>479</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I195" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -8431,13 +8434,13 @@
         <v>482</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I196" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -8457,13 +8460,13 @@
         <v>485</v>
       </c>
       <c r="H197" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I197" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -8483,13 +8486,13 @@
         <v>488</v>
       </c>
       <c r="H198" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I198" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -8512,13 +8515,13 @@
         <v>171</v>
       </c>
       <c r="H199" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I199" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -8538,13 +8541,13 @@
         <v>204</v>
       </c>
       <c r="H200" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I200" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -8564,13 +8567,13 @@
         <v>496</v>
       </c>
       <c r="H201" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I201" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -8590,13 +8593,13 @@
         <v>499</v>
       </c>
       <c r="H202" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I202" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -8616,13 +8619,13 @@
         <v>502</v>
       </c>
       <c r="H203" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I203" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -8642,13 +8645,13 @@
         <v>505</v>
       </c>
       <c r="H204" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I204" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -8668,13 +8671,13 @@
         <v>508</v>
       </c>
       <c r="H205" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I205" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -8694,13 +8697,13 @@
         <v>511</v>
       </c>
       <c r="H206" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I206" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -8720,13 +8723,13 @@
         <v>514</v>
       </c>
       <c r="H207" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I207" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -8746,13 +8749,13 @@
         <v>515</v>
       </c>
       <c r="H208" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I208" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -8772,13 +8775,13 @@
         <v>32</v>
       </c>
       <c r="H209" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I209" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -8798,13 +8801,13 @@
         <v>800</v>
       </c>
       <c r="H210" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I210" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -8824,13 +8827,13 @@
         <v>32</v>
       </c>
       <c r="H211" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I211" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -8850,13 +8853,13 @@
         <v>32</v>
       </c>
       <c r="H212" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I212" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -8876,13 +8879,13 @@
         <v>140</v>
       </c>
       <c r="H213" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I213" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -8902,13 +8905,13 @@
         <v>25</v>
       </c>
       <c r="H214" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I214" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -8928,13 +8931,13 @@
         <v>22</v>
       </c>
       <c r="H215" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I215" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -8954,13 +8957,13 @@
         <v>74</v>
       </c>
       <c r="H216" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I216" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -8980,13 +8983,13 @@
         <v>56</v>
       </c>
       <c r="H217" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I217" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -9006,13 +9009,13 @@
         <v>528</v>
       </c>
       <c r="H218" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I218" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -9032,13 +9035,13 @@
         <v>56</v>
       </c>
       <c r="H219" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I219" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -9058,13 +9061,13 @@
         <v>204</v>
       </c>
       <c r="H220" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I220" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -9084,13 +9087,13 @@
         <v>204</v>
       </c>
       <c r="H221" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I221" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -9110,13 +9113,13 @@
         <v>56</v>
       </c>
       <c r="H222" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I222" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -9136,13 +9139,13 @@
         <v>204</v>
       </c>
       <c r="H223" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I223" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -9162,13 +9165,13 @@
         <v>284</v>
       </c>
       <c r="H224" t="s">
-        <v>935</v>
+        <v>967</v>
       </c>
       <c r="I224" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -9188,13 +9191,13 @@
         <v>540</v>
       </c>
       <c r="H225" t="s">
-        <v>935</v>
+        <v>967</v>
       </c>
       <c r="I225" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -9214,13 +9217,13 @@
         <v>32</v>
       </c>
       <c r="H226" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I226" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -9240,13 +9243,13 @@
         <v>544</v>
       </c>
       <c r="H227" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I227" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -9266,7 +9269,7 @@
         <v>547</v>
       </c>
       <c r="H228" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I228" t="s">
         <v>845</v>
@@ -9275,7 +9278,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -9295,13 +9298,13 @@
         <v>550</v>
       </c>
       <c r="H229" t="s">
-        <v>935</v>
+        <v>967</v>
       </c>
       <c r="I229" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -9321,7 +9324,7 @@
         <v>149</v>
       </c>
       <c r="H230" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I230" t="s">
         <v>845</v>
@@ -9330,7 +9333,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -9350,7 +9353,7 @@
         <v>555</v>
       </c>
       <c r="H231" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I231" t="s">
         <v>845</v>
@@ -9359,7 +9362,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -9379,13 +9382,13 @@
         <v>558</v>
       </c>
       <c r="H232" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I232" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -9408,13 +9411,13 @@
         <v>358</v>
       </c>
       <c r="H233" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I233" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -9434,13 +9437,13 @@
         <v>563</v>
       </c>
       <c r="H234" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I234" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -9460,13 +9463,13 @@
         <v>204</v>
       </c>
       <c r="H235" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I235" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -9486,13 +9489,13 @@
         <v>568</v>
       </c>
       <c r="H236" t="s">
-        <v>935</v>
+        <v>967</v>
       </c>
       <c r="I236" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -9512,13 +9515,13 @@
         <v>72</v>
       </c>
       <c r="H237" t="s">
-        <v>935</v>
+        <v>967</v>
       </c>
       <c r="I237" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -9538,7 +9541,7 @@
         <v>390</v>
       </c>
       <c r="H238" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I238" t="s">
         <v>845</v>
@@ -9547,7 +9550,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -9567,13 +9570,13 @@
         <v>394</v>
       </c>
       <c r="H239" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I239" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -9593,13 +9596,13 @@
         <v>80</v>
       </c>
       <c r="H240" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I240" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -9619,13 +9622,13 @@
         <v>56</v>
       </c>
       <c r="H241" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I241" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -9645,13 +9648,13 @@
         <v>32</v>
       </c>
       <c r="H242" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I242" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -9671,13 +9674,13 @@
         <v>56</v>
       </c>
       <c r="H243" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I243" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -9697,13 +9700,13 @@
         <v>56</v>
       </c>
       <c r="H244" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="I244" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -9723,13 +9726,13 @@
         <v>64</v>
       </c>
       <c r="H245" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I245" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -9749,13 +9752,13 @@
         <v>540</v>
       </c>
       <c r="H246" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I246" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -9775,13 +9778,13 @@
         <v>589</v>
       </c>
       <c r="H247" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I247" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -9801,13 +9804,13 @@
         <v>592</v>
       </c>
       <c r="H248" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I248" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -9827,13 +9830,13 @@
         <v>210</v>
       </c>
       <c r="H249" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I249" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -9853,13 +9856,13 @@
         <v>32</v>
       </c>
       <c r="H250" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I250" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -9879,13 +9882,13 @@
         <v>103</v>
       </c>
       <c r="H251" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I251" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -9905,13 +9908,13 @@
         <v>599</v>
       </c>
       <c r="H252" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I252" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -9931,13 +9934,13 @@
         <v>210</v>
       </c>
       <c r="H253" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I253" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -9957,13 +9960,13 @@
         <v>210</v>
       </c>
       <c r="H254" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I254" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -9983,13 +9986,13 @@
         <v>32</v>
       </c>
       <c r="H255" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I255" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -10009,13 +10012,13 @@
         <v>227</v>
       </c>
       <c r="H256" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I256" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -10035,13 +10038,13 @@
         <v>32</v>
       </c>
       <c r="H257" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I257" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -10058,13 +10061,13 @@
         <v>831</v>
       </c>
       <c r="H258" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I258" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -10084,13 +10087,13 @@
         <v>612</v>
       </c>
       <c r="H259" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I259" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -10110,13 +10113,13 @@
         <v>22</v>
       </c>
       <c r="H260" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I260" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -10136,13 +10139,13 @@
         <v>616</v>
       </c>
       <c r="H261" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I261" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -10162,13 +10165,13 @@
         <v>619</v>
       </c>
       <c r="H262" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I262" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -10188,13 +10191,13 @@
         <v>32</v>
       </c>
       <c r="H263" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I263" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -10214,13 +10217,13 @@
         <v>624</v>
       </c>
       <c r="H264" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I264" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -10240,13 +10243,13 @@
         <v>159</v>
       </c>
       <c r="H265" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I265" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -10266,13 +10269,13 @@
         <v>629</v>
       </c>
       <c r="H266" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I266" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -10292,13 +10295,13 @@
         <v>369</v>
       </c>
       <c r="H267" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I267" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -10318,13 +10321,13 @@
         <v>204</v>
       </c>
       <c r="H268" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I268" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -10344,13 +10347,13 @@
         <v>636</v>
       </c>
       <c r="H269" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I269" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -10370,13 +10373,13 @@
         <v>159</v>
       </c>
       <c r="H270" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I270" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -10396,13 +10399,13 @@
         <v>641</v>
       </c>
       <c r="H271" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I271" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -10419,13 +10422,13 @@
         <v>643</v>
       </c>
       <c r="H272" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I272" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -10445,13 +10448,13 @@
         <v>238</v>
       </c>
       <c r="H273" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I273" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -10471,13 +10474,13 @@
         <v>159</v>
       </c>
       <c r="H274" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I274" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -10497,13 +10500,13 @@
         <v>159</v>
       </c>
       <c r="H275" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I275" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -10523,13 +10526,13 @@
         <v>833</v>
       </c>
       <c r="H276" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I276" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -10549,13 +10552,13 @@
         <v>835</v>
       </c>
       <c r="H277" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I277" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -10575,13 +10578,13 @@
         <v>836</v>
       </c>
       <c r="H278" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I278" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -10601,13 +10604,13 @@
         <v>641</v>
       </c>
       <c r="H279" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I279" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -10627,13 +10630,13 @@
         <v>56</v>
       </c>
       <c r="H280" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="I280" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -10653,13 +10656,13 @@
         <v>269</v>
       </c>
       <c r="H281" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I281" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -10679,13 +10682,13 @@
         <v>204</v>
       </c>
       <c r="H282" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I282" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -10705,13 +10708,13 @@
         <v>661</v>
       </c>
       <c r="H283" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I283" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -10731,13 +10734,13 @@
         <v>664</v>
       </c>
       <c r="H284" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I284" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -10757,13 +10760,13 @@
         <v>32</v>
       </c>
       <c r="H285" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I285" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -10786,13 +10789,13 @@
         <v>159</v>
       </c>
       <c r="H286" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I286" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -10812,13 +10815,13 @@
         <v>32</v>
       </c>
       <c r="H287" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I287" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -10838,13 +10841,13 @@
         <v>673</v>
       </c>
       <c r="H288" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I288" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -10864,13 +10867,13 @@
         <v>32</v>
       </c>
       <c r="H289" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I289" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -10890,13 +10893,13 @@
         <v>204</v>
       </c>
       <c r="H290" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I290" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -10916,13 +10919,13 @@
         <v>680</v>
       </c>
       <c r="H291" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I291" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -10942,13 +10945,13 @@
         <v>394</v>
       </c>
       <c r="H292" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I292" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -10968,13 +10971,13 @@
         <v>685</v>
       </c>
       <c r="H293" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I293" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -10994,13 +10997,13 @@
         <v>688</v>
       </c>
       <c r="H294" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I294" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -11020,7 +11023,7 @@
         <v>691</v>
       </c>
       <c r="H295" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="I295" t="s">
         <v>845</v>
@@ -11029,7 +11032,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -11049,7 +11052,7 @@
         <v>67</v>
       </c>
       <c r="H296" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="I296" t="s">
         <v>845</v>
@@ -11058,7 +11061,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -11078,7 +11081,7 @@
         <v>696</v>
       </c>
       <c r="H297" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="I297" t="s">
         <v>845</v>
@@ -11087,7 +11090,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -11107,7 +11110,7 @@
         <v>699</v>
       </c>
       <c r="H298" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="I298" t="s">
         <v>845</v>
@@ -11116,7 +11119,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -11136,7 +11139,7 @@
         <v>56</v>
       </c>
       <c r="H299" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="I299" t="s">
         <v>845</v>
@@ -11145,7 +11148,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -11165,7 +11168,7 @@
         <v>704</v>
       </c>
       <c r="H300" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="I300" t="s">
         <v>845</v>
@@ -11174,7 +11177,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>707</v>
       </c>
       <c r="H301" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="I301" t="s">
         <v>845</v>
@@ -11203,7 +11206,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -11223,13 +11226,13 @@
         <v>29</v>
       </c>
       <c r="H302" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="I302" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -11249,13 +11252,13 @@
         <v>32</v>
       </c>
       <c r="H303" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="I303" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -11275,13 +11278,13 @@
         <v>714</v>
       </c>
       <c r="H304" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="I304" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -11301,13 +11304,13 @@
         <v>204</v>
       </c>
       <c r="H305" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="I305" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -11327,13 +11330,13 @@
         <v>117</v>
       </c>
       <c r="H306" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="I306" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -11353,19 +11356,19 @@
         <v>720</v>
       </c>
       <c r="H307" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="I307" t="s">
         <v>845</v>
       </c>
       <c r="K307" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="L307" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -11385,19 +11388,19 @@
         <v>704</v>
       </c>
       <c r="H308" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="I308" t="s">
         <v>845</v>
       </c>
       <c r="K308" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="L308" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -11417,13 +11420,13 @@
         <v>29</v>
       </c>
       <c r="H309" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="I309" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>0</v>
       </c>
@@ -11443,13 +11446,13 @@
         <v>204</v>
       </c>
       <c r="H310" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="I310" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -11469,13 +11472,13 @@
         <v>728</v>
       </c>
       <c r="H311" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="I311" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -11495,13 +11498,13 @@
         <v>29</v>
       </c>
       <c r="H312" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="I312" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -11521,13 +11524,13 @@
         <v>103</v>
       </c>
       <c r="H313" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I313" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -11547,13 +11550,13 @@
         <v>227</v>
       </c>
       <c r="H314" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I314" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -11573,13 +11576,13 @@
         <v>103</v>
       </c>
       <c r="H315" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I315" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -11599,13 +11602,13 @@
         <v>32</v>
       </c>
       <c r="H316" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I316" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -11625,13 +11628,13 @@
         <v>159</v>
       </c>
       <c r="H317" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I317" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -11651,13 +11654,13 @@
         <v>740</v>
       </c>
       <c r="H318" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I318" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -11677,13 +11680,13 @@
         <v>742</v>
       </c>
       <c r="H319" t="s">
+        <v>962</v>
+      </c>
+      <c r="I319" t="s">
         <v>965</v>
       </c>
-      <c r="I319" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>0</v>
       </c>
@@ -11703,13 +11706,13 @@
         <v>744</v>
       </c>
       <c r="H320" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I320" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>0</v>
       </c>
@@ -11729,31 +11732,31 @@
         <v>337</v>
       </c>
       <c r="H321" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I321" t="s">
         <v>849</v>
       </c>
       <c r="K321" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="L321" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="M321" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="N321" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="O321" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="P321" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>0</v>
       </c>
@@ -11773,13 +11776,13 @@
         <v>746</v>
       </c>
       <c r="H322" t="s">
+        <v>962</v>
+      </c>
+      <c r="I322" t="s">
         <v>965</v>
       </c>
-      <c r="I322" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>0</v>
       </c>
@@ -11799,19 +11802,19 @@
         <v>768</v>
       </c>
       <c r="H323" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="I323" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="K323" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="L323" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>0</v>
       </c>
@@ -11831,13 +11834,13 @@
         <v>748</v>
       </c>
       <c r="H324" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I324" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>0</v>
       </c>
@@ -11857,13 +11860,13 @@
         <v>750</v>
       </c>
       <c r="H325" t="s">
+        <v>962</v>
+      </c>
+      <c r="I325" t="s">
         <v>965</v>
       </c>
-      <c r="I325" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>0</v>
       </c>
@@ -11883,13 +11886,13 @@
         <v>117</v>
       </c>
       <c r="H326" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="I326" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>0</v>
       </c>
@@ -11909,13 +11912,13 @@
         <v>769</v>
       </c>
       <c r="H327" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="I327" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>0</v>
       </c>
@@ -11935,13 +11938,13 @@
         <v>753</v>
       </c>
       <c r="H328" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I328" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>0</v>
       </c>
@@ -11961,13 +11964,13 @@
         <v>696</v>
       </c>
       <c r="H329" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="I329" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>0</v>
       </c>
@@ -11987,10 +11990,10 @@
         <v>756</v>
       </c>
       <c r="H330" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="I330" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1901_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1901_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5F4A31-E0BC-4702-88AC-745CE7ACB15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064B588D-6767-4666-85A5-E9D392056FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2594,9 +2594,6 @@
     <t>kesselring_h</t>
   </si>
   <si>
-    <t>kappeler_a</t>
-  </si>
-  <si>
     <t>PD</t>
   </si>
   <si>
@@ -2606,9 +2603,6 @@
     <t>egli_e</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>meili_f2</t>
   </si>
   <si>
@@ -2663,21 +2657,12 @@
     <t>buehler_a</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>gaule_j</t>
   </si>
   <si>
     <t>hoeber_r</t>
   </si>
   <si>
-    <t>wyss_o</t>
-  </si>
-  <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>seitz_j</t>
   </si>
   <si>
@@ -2717,9 +2702,6 @@
     <t>kreis_e</t>
   </si>
   <si>
-    <t>kroenlein_u</t>
-  </si>
-  <si>
     <t>schlatter_k</t>
   </si>
   <si>
@@ -2738,9 +2720,6 @@
     <t>haab_o</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>bleuler_e</t>
   </si>
   <si>
@@ -2822,9 +2801,6 @@
     <t>morel_l</t>
   </si>
   <si>
-    <t>betz_lp</t>
-  </si>
-  <si>
     <t>caro_g</t>
   </si>
   <si>
@@ -2903,9 +2879,6 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>heuscher_j</t>
   </si>
   <si>
@@ -2943,6 +2916,33 @@
   </si>
   <si>
     <t>HP</t>
+  </si>
+  <si>
+    <t>betz_l</t>
+  </si>
+  <si>
+    <t>kappeler_ga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meyer-rueegg_h </t>
+  </si>
+  <si>
+    <t>kroenlein_ru</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>wyss-kienast_o</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -2991,7 +2991,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3295,20 +3295,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E84" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104"/>
+    <sheetView tabSelected="1" topLeftCell="G61" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="103.28515625" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="103.33203125" customWidth="1"/>
+    <col min="7" max="7" width="34.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3334,7 +3334,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -3363,7 +3363,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -3389,7 +3389,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -3415,7 +3415,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -3441,7 +3441,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -3467,7 +3467,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -3493,7 +3493,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -3519,7 +3519,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F9" t="s">
         <v>758</v>
@@ -3539,13 +3539,13 @@
         <v>757</v>
       </c>
       <c r="H9" t="s">
+        <v>962</v>
+      </c>
+      <c r="I9" t="s">
         <v>853</v>
       </c>
-      <c r="I9" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -3565,13 +3565,13 @@
         <v>29</v>
       </c>
       <c r="H10" t="s">
+        <v>962</v>
+      </c>
+      <c r="I10" t="s">
         <v>853</v>
       </c>
-      <c r="I10" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F11" t="s">
         <v>31</v>
@@ -3591,13 +3591,13 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I11" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -3617,13 +3617,13 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I12" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -3643,13 +3643,13 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I13" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -3669,13 +3669,13 @@
         <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I14" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F15" t="s">
         <v>42</v>
@@ -3695,13 +3695,13 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I15" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
@@ -3730,7 +3730,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F17" t="s">
         <v>760</v>
@@ -3759,7 +3759,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
@@ -3779,13 +3779,13 @@
         <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>857</v>
+        <v>966</v>
       </c>
       <c r="I18" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F19" t="s">
         <v>50</v>
@@ -3805,13 +3805,13 @@
         <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>857</v>
+        <v>966</v>
       </c>
       <c r="I19" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F20" t="s">
         <v>53</v>
@@ -3831,13 +3831,13 @@
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>857</v>
+        <v>966</v>
       </c>
       <c r="I20" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F21" t="s">
         <v>55</v>
@@ -3866,7 +3866,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
@@ -3886,13 +3886,13 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I22" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F23" t="s">
         <v>60</v>
@@ -3912,13 +3912,13 @@
         <v>61</v>
       </c>
       <c r="H23" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I23" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F24" t="s">
         <v>63</v>
@@ -3938,13 +3938,13 @@
         <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I24" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F25" t="s">
         <v>66</v>
@@ -3964,13 +3964,13 @@
         <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I25" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F26" t="s">
         <v>69</v>
@@ -3996,7 +3996,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F27" t="s">
         <v>759</v>
@@ -4022,7 +4022,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F28" t="s">
         <v>806</v>
@@ -4048,7 +4048,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>805</v>
       </c>
       <c r="E29" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F29" t="s">
         <v>807</v>
@@ -4074,7 +4074,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F30" t="s">
         <v>77</v>
@@ -4094,13 +4094,13 @@
         <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I30" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F31" t="s">
         <v>79</v>
@@ -4129,7 +4129,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F32" t="s">
         <v>82</v>
@@ -4155,7 +4155,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F33" t="s">
         <v>761</v>
@@ -4175,13 +4175,13 @@
         <v>84</v>
       </c>
       <c r="H33" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I33" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F34" t="s">
         <v>86</v>
@@ -4201,13 +4201,13 @@
         <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I34" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F35" t="s">
         <v>89</v>
@@ -4227,13 +4227,13 @@
         <v>90</v>
       </c>
       <c r="H35" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I35" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F36" t="s">
         <v>92</v>
@@ -4253,13 +4253,13 @@
         <v>93</v>
       </c>
       <c r="H36" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I36" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F37" t="s">
         <v>95</v>
@@ -4279,13 +4279,13 @@
         <v>96</v>
       </c>
       <c r="H37" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I37" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F38" t="s">
         <v>98</v>
@@ -4305,13 +4305,13 @@
         <v>99</v>
       </c>
       <c r="H38" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I38" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F39" t="s">
         <v>772</v>
@@ -4331,13 +4331,13 @@
         <v>776</v>
       </c>
       <c r="H39" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I39" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F40" t="s">
         <v>102</v>
@@ -4357,13 +4357,13 @@
         <v>103</v>
       </c>
       <c r="H40" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I40" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>781</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>774</v>
       </c>
       <c r="E41" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F41" t="s">
         <v>775</v>
@@ -4383,13 +4383,13 @@
         <v>32</v>
       </c>
       <c r="H41" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I41" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F42" t="s">
         <v>771</v>
@@ -4409,13 +4409,13 @@
         <v>105</v>
       </c>
       <c r="H42" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I42" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F43" t="s">
         <v>107</v>
@@ -4435,13 +4435,13 @@
         <v>108</v>
       </c>
       <c r="H43" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I43" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F44" t="s">
         <v>110</v>
@@ -4461,13 +4461,13 @@
         <v>111</v>
       </c>
       <c r="H44" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I44" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F45" t="s">
         <v>113</v>
@@ -4487,13 +4487,13 @@
         <v>114</v>
       </c>
       <c r="H45" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I45" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F46" t="s">
         <v>116</v>
@@ -4513,13 +4513,13 @@
         <v>117</v>
       </c>
       <c r="H46" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I46" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F47" t="s">
         <v>119</v>
@@ -4539,13 +4539,13 @@
         <v>120</v>
       </c>
       <c r="H47" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I47" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F48" t="s">
         <v>122</v>
@@ -4565,13 +4565,13 @@
         <v>778</v>
       </c>
       <c r="H48" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I48" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F49" t="s">
         <v>770</v>
@@ -4591,13 +4591,13 @@
         <v>125</v>
       </c>
       <c r="H49" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I49" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F50" t="s">
         <v>127</v>
@@ -4617,13 +4617,13 @@
         <v>128</v>
       </c>
       <c r="H50" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I50" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>129</v>
       </c>
       <c r="E51" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F51" t="s">
         <v>130</v>
@@ -4643,13 +4643,13 @@
         <v>131</v>
       </c>
       <c r="H51" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I51" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F52" t="s">
         <v>133</v>
@@ -4669,13 +4669,13 @@
         <v>134</v>
       </c>
       <c r="H52" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I52" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>135</v>
       </c>
       <c r="E53" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F53" t="s">
         <v>136</v>
@@ -4695,13 +4695,13 @@
         <v>137</v>
       </c>
       <c r="H53" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I53" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F54" t="s">
         <v>139</v>
@@ -4721,13 +4721,13 @@
         <v>140</v>
       </c>
       <c r="H54" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I54" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>141</v>
       </c>
       <c r="E55" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F55" t="s">
         <v>142</v>
@@ -4747,13 +4747,13 @@
         <v>143</v>
       </c>
       <c r="H55" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I55" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>144</v>
       </c>
       <c r="E56" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F56" t="s">
         <v>808</v>
@@ -4773,13 +4773,13 @@
         <v>145</v>
       </c>
       <c r="H56" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I56" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F57" t="s">
         <v>147</v>
@@ -4799,13 +4799,13 @@
         <v>148</v>
       </c>
       <c r="H57" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I57" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>150</v>
       </c>
       <c r="E58" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F58" t="s">
         <v>809</v>
@@ -4825,13 +4825,13 @@
         <v>74</v>
       </c>
       <c r="H58" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I58" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F59" t="s">
         <v>153</v>
@@ -4851,7 +4851,7 @@
         <v>154</v>
       </c>
       <c r="H59" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I59" t="s">
         <v>845</v>
@@ -4860,13 +4860,13 @@
         <v>850</v>
       </c>
       <c r="K59" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="L59" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>155</v>
       </c>
       <c r="E60" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F60" t="s">
         <v>810</v>
@@ -4886,7 +4886,7 @@
         <v>156</v>
       </c>
       <c r="H60" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I60" t="s">
         <v>845</v>
@@ -4895,7 +4895,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>157</v>
       </c>
       <c r="E61" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F61" t="s">
         <v>158</v>
@@ -4915,7 +4915,7 @@
         <v>159</v>
       </c>
       <c r="H61" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I61" t="s">
         <v>845</v>
@@ -4924,7 +4924,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>160</v>
       </c>
       <c r="E62" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F62" t="s">
         <v>161</v>
@@ -4944,13 +4944,13 @@
         <v>162</v>
       </c>
       <c r="H62" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I62" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>163</v>
       </c>
       <c r="E63" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F63" t="s">
         <v>164</v>
@@ -4970,13 +4970,13 @@
         <v>165</v>
       </c>
       <c r="H63" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I63" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>166</v>
       </c>
       <c r="E64" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F64" t="s">
         <v>167</v>
@@ -4996,13 +4996,13 @@
         <v>168</v>
       </c>
       <c r="H64" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I64" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>169</v>
       </c>
       <c r="E65" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F65" t="s">
         <v>170</v>
@@ -5022,13 +5022,13 @@
         <v>171</v>
       </c>
       <c r="H65" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I65" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>172</v>
       </c>
       <c r="E66" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F66" t="s">
         <v>173</v>
@@ -5048,13 +5048,13 @@
         <v>174</v>
       </c>
       <c r="H66" t="s">
-        <v>876</v>
+        <v>965</v>
       </c>
       <c r="I66" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>175</v>
       </c>
       <c r="E67" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F67" t="s">
         <v>176</v>
@@ -5074,13 +5074,13 @@
         <v>159</v>
       </c>
       <c r="H67" t="s">
-        <v>876</v>
+        <v>965</v>
       </c>
       <c r="I67" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>177</v>
       </c>
       <c r="E68" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F68" t="s">
         <v>178</v>
@@ -5100,13 +5100,13 @@
         <v>179</v>
       </c>
       <c r="H68" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="I68" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>180</v>
       </c>
       <c r="E69" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F69" t="s">
         <v>181</v>
@@ -5126,13 +5126,13 @@
         <v>182</v>
       </c>
       <c r="H69" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="I69" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>183</v>
       </c>
       <c r="E70" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F70" t="s">
         <v>184</v>
@@ -5152,13 +5152,13 @@
         <v>159</v>
       </c>
       <c r="H70" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="I70" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>185</v>
       </c>
       <c r="E71" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F71" t="s">
         <v>186</v>
@@ -5178,13 +5178,13 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="I71" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>187</v>
       </c>
       <c r="E72" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F72" t="s">
         <v>188</v>
@@ -5204,13 +5204,13 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="I72" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>189</v>
       </c>
       <c r="E73" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F73" t="s">
         <v>812</v>
@@ -5230,13 +5230,13 @@
         <v>811</v>
       </c>
       <c r="H73" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="I73" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>190</v>
       </c>
       <c r="E74" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F74" t="s">
         <v>191</v>
@@ -5256,13 +5256,13 @@
         <v>192</v>
       </c>
       <c r="H74" t="s">
-        <v>879</v>
+        <v>967</v>
       </c>
       <c r="I74" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>193</v>
       </c>
       <c r="E75" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F75" t="s">
         <v>194</v>
@@ -5282,13 +5282,13 @@
         <v>120</v>
       </c>
       <c r="H75" t="s">
-        <v>879</v>
+        <v>967</v>
       </c>
       <c r="I75" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>195</v>
       </c>
       <c r="E76" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F76" t="s">
         <v>196</v>
@@ -5308,13 +5308,13 @@
         <v>197</v>
       </c>
       <c r="H76" t="s">
-        <v>879</v>
+        <v>967</v>
       </c>
       <c r="I76" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>198</v>
       </c>
       <c r="E77" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F77" t="s">
         <v>199</v>
@@ -5334,13 +5334,13 @@
         <v>200</v>
       </c>
       <c r="H77" t="s">
-        <v>880</v>
+        <v>969</v>
       </c>
       <c r="I77" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>201</v>
       </c>
       <c r="E78" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F78" t="s">
         <v>813</v>
@@ -5360,13 +5360,13 @@
         <v>814</v>
       </c>
       <c r="H78" t="s">
-        <v>880</v>
+        <v>969</v>
       </c>
       <c r="I78" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>202</v>
       </c>
       <c r="E79" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F79" t="s">
         <v>203</v>
@@ -5386,13 +5386,13 @@
         <v>204</v>
       </c>
       <c r="H79" t="s">
-        <v>880</v>
+        <v>969</v>
       </c>
       <c r="I79" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>205</v>
       </c>
       <c r="E80" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F80" t="s">
         <v>206</v>
@@ -5412,13 +5412,13 @@
         <v>207</v>
       </c>
       <c r="H80" t="s">
-        <v>880</v>
+        <v>969</v>
       </c>
       <c r="I80" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>208</v>
       </c>
       <c r="E81" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F81" t="s">
         <v>209</v>
@@ -5438,13 +5438,13 @@
         <v>210</v>
       </c>
       <c r="H81" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="I81" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>211</v>
       </c>
       <c r="E82" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F82" t="s">
         <v>212</v>
@@ -5464,13 +5464,13 @@
         <v>213</v>
       </c>
       <c r="H82" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="I82" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>214</v>
       </c>
       <c r="E83" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F83" t="s">
         <v>215</v>
@@ -5490,13 +5490,13 @@
         <v>216</v>
       </c>
       <c r="H83" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="I83" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>217</v>
       </c>
       <c r="E84" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F84" t="s">
         <v>218</v>
@@ -5516,13 +5516,13 @@
         <v>219</v>
       </c>
       <c r="H84" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="I84" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>220</v>
       </c>
       <c r="E85" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F85" t="s">
         <v>221</v>
@@ -5542,13 +5542,13 @@
         <v>222</v>
       </c>
       <c r="H85" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="I85" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>223</v>
       </c>
       <c r="E86" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F86" t="s">
         <v>158</v>
@@ -5568,13 +5568,13 @@
         <v>159</v>
       </c>
       <c r="H86" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="I86" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>224</v>
       </c>
       <c r="E87" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F87" t="s">
         <v>225</v>
@@ -5594,13 +5594,13 @@
         <v>226</v>
       </c>
       <c r="H87" t="s">
-        <v>876</v>
+        <v>965</v>
       </c>
       <c r="I87" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>228</v>
       </c>
       <c r="E88" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F88" t="s">
         <v>229</v>
@@ -5620,13 +5620,13 @@
         <v>230</v>
       </c>
       <c r="H88" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="I88" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>231</v>
       </c>
       <c r="E89" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F89" t="s">
         <v>232</v>
@@ -5646,13 +5646,13 @@
         <v>815</v>
       </c>
       <c r="H89" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I89" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>233</v>
       </c>
       <c r="E90" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F90" t="s">
         <v>234</v>
@@ -5672,13 +5672,13 @@
         <v>235</v>
       </c>
       <c r="H90" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I90" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>236</v>
       </c>
       <c r="E91" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F91" t="s">
         <v>237</v>
@@ -5698,13 +5698,13 @@
         <v>238</v>
       </c>
       <c r="H91" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I91" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>239</v>
       </c>
       <c r="E92" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F92" t="s">
         <v>240</v>
@@ -5724,13 +5724,13 @@
         <v>120</v>
       </c>
       <c r="H92" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I92" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>241</v>
       </c>
       <c r="E93" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F93" t="s">
         <v>242</v>
@@ -5750,13 +5750,13 @@
         <v>773</v>
       </c>
       <c r="H93" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="I93" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>243</v>
       </c>
       <c r="E94" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F94" t="s">
         <v>244</v>
@@ -5776,13 +5776,13 @@
         <v>245</v>
       </c>
       <c r="H94" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="I94" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>246</v>
       </c>
       <c r="E95" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F95" t="s">
         <v>247</v>
@@ -5802,13 +5802,13 @@
         <v>248</v>
       </c>
       <c r="H95" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="I95" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>779</v>
       </c>
       <c r="E96" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F96" t="s">
         <v>780</v>
@@ -5828,13 +5828,13 @@
         <v>227</v>
       </c>
       <c r="H96" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="I96" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>782</v>
       </c>
       <c r="E97" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F97" t="s">
         <v>783</v>
@@ -5854,13 +5854,13 @@
         <v>32</v>
       </c>
       <c r="H97" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="I97" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>784</v>
       </c>
       <c r="E98" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F98" t="s">
         <v>785</v>
@@ -5880,13 +5880,13 @@
         <v>56</v>
       </c>
       <c r="H98" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="I98" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>249</v>
       </c>
       <c r="E99" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F99" t="s">
         <v>250</v>
@@ -5906,13 +5906,13 @@
         <v>251</v>
       </c>
       <c r="H99" t="s">
-        <v>879</v>
+        <v>967</v>
       </c>
       <c r="I99" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>252</v>
       </c>
       <c r="E100" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F100" t="s">
         <v>253</v>
@@ -5932,13 +5932,13 @@
         <v>254</v>
       </c>
       <c r="H100" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="I100" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>255</v>
       </c>
       <c r="E101" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F101" t="s">
         <v>256</v>
@@ -5958,13 +5958,13 @@
         <v>257</v>
       </c>
       <c r="H101" t="s">
-        <v>876</v>
+        <v>965</v>
       </c>
       <c r="I101" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>258</v>
       </c>
       <c r="E102" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F102" t="s">
         <v>259</v>
@@ -5984,13 +5984,13 @@
         <v>200</v>
       </c>
       <c r="H102" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="I102" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>260</v>
       </c>
       <c r="E103" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F103" t="s">
         <v>777</v>
@@ -6010,13 +6010,13 @@
         <v>32</v>
       </c>
       <c r="H103" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I103" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>261</v>
       </c>
       <c r="E104" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F104" t="s">
         <v>262</v>
@@ -6036,13 +6036,13 @@
         <v>263</v>
       </c>
       <c r="H104" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="I104" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>264</v>
       </c>
       <c r="E105" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F105" t="s">
         <v>816</v>
@@ -6062,13 +6062,13 @@
         <v>32</v>
       </c>
       <c r="H105" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="I105" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>265</v>
       </c>
       <c r="E106" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F106" t="s">
         <v>266</v>
@@ -6088,13 +6088,13 @@
         <v>200</v>
       </c>
       <c r="H106" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="I106" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>267</v>
       </c>
       <c r="E107" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F107" t="s">
         <v>268</v>
@@ -6114,13 +6114,13 @@
         <v>200</v>
       </c>
       <c r="H107" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="I107" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>270</v>
       </c>
       <c r="E108" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F108" t="s">
         <v>271</v>
@@ -6140,13 +6140,13 @@
         <v>200</v>
       </c>
       <c r="H108" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="I108" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>272</v>
       </c>
       <c r="E109" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F109" t="s">
         <v>273</v>
@@ -6166,13 +6166,13 @@
         <v>56</v>
       </c>
       <c r="H109" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="I109" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>274</v>
       </c>
       <c r="E110" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F110" t="s">
         <v>762</v>
@@ -6192,13 +6192,13 @@
         <v>56</v>
       </c>
       <c r="H110" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="I110" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>275</v>
       </c>
       <c r="E111" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F111" t="s">
         <v>276</v>
@@ -6218,13 +6218,13 @@
         <v>56</v>
       </c>
       <c r="H111" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="I111" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>277</v>
       </c>
       <c r="E112" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F112" t="s">
         <v>278</v>
@@ -6244,13 +6244,13 @@
         <v>817</v>
       </c>
       <c r="H112" t="s">
-        <v>894</v>
+        <v>964</v>
       </c>
       <c r="I112" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>279</v>
       </c>
       <c r="E113" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F113" t="s">
         <v>280</v>
@@ -6270,13 +6270,13 @@
         <v>281</v>
       </c>
       <c r="H113" t="s">
-        <v>894</v>
+        <v>964</v>
       </c>
       <c r="I113" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>282</v>
       </c>
       <c r="E114" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F114" t="s">
         <v>283</v>
@@ -6296,13 +6296,13 @@
         <v>284</v>
       </c>
       <c r="H114" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="I114" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>285</v>
       </c>
       <c r="E115" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F115" t="s">
         <v>818</v>
@@ -6322,13 +6322,13 @@
         <v>286</v>
       </c>
       <c r="H115" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="I115" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>287</v>
       </c>
       <c r="E116" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F116" t="s">
         <v>288</v>
@@ -6348,13 +6348,13 @@
         <v>289</v>
       </c>
       <c r="H116" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="I116" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>290</v>
       </c>
       <c r="E117" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F117" t="s">
         <v>291</v>
@@ -6374,13 +6374,13 @@
         <v>204</v>
       </c>
       <c r="H117" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I117" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>292</v>
       </c>
       <c r="E118" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F118" t="s">
         <v>293</v>
@@ -6400,13 +6400,13 @@
         <v>32</v>
       </c>
       <c r="H118" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I118" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>294</v>
       </c>
       <c r="E119" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F119" t="s">
         <v>295</v>
@@ -6426,13 +6426,13 @@
         <v>32</v>
       </c>
       <c r="H119" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I119" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>296</v>
       </c>
       <c r="E120" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F120" t="s">
         <v>297</v>
@@ -6452,13 +6452,13 @@
         <v>103</v>
       </c>
       <c r="H120" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="I120" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>298</v>
       </c>
       <c r="E121" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F121" t="s">
         <v>299</v>
@@ -6478,13 +6478,13 @@
         <v>764</v>
       </c>
       <c r="H121" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="I121" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>300</v>
       </c>
       <c r="E122" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F122" t="s">
         <v>763</v>
@@ -6504,13 +6504,13 @@
         <v>301</v>
       </c>
       <c r="H122" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="I122" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>302</v>
       </c>
       <c r="E123" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F123" t="s">
         <v>303</v>
@@ -6530,13 +6530,13 @@
         <v>227</v>
       </c>
       <c r="H123" t="s">
-        <v>901</v>
+        <v>963</v>
       </c>
       <c r="I123" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>304</v>
       </c>
       <c r="E124" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F124" t="s">
         <v>305</v>
@@ -6556,13 +6556,13 @@
         <v>306</v>
       </c>
       <c r="H124" t="s">
-        <v>901</v>
+        <v>963</v>
       </c>
       <c r="I124" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>307</v>
       </c>
       <c r="E125" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F125" t="s">
         <v>308</v>
@@ -6582,13 +6582,13 @@
         <v>309</v>
       </c>
       <c r="H125" t="s">
-        <v>901</v>
+        <v>963</v>
       </c>
       <c r="I125" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>310</v>
       </c>
       <c r="E126" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F126" t="s">
         <v>311</v>
@@ -6608,13 +6608,13 @@
         <v>312</v>
       </c>
       <c r="H126" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="I126" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>313</v>
       </c>
       <c r="E127" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F127" t="s">
         <v>314</v>
@@ -6634,13 +6634,13 @@
         <v>315</v>
       </c>
       <c r="H127" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="I127" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>316</v>
       </c>
       <c r="E128" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F128" t="s">
         <v>765</v>
@@ -6660,13 +6660,13 @@
         <v>317</v>
       </c>
       <c r="H128" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="I128" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>318</v>
       </c>
       <c r="E129" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F129" t="s">
         <v>319</v>
@@ -6686,13 +6686,13 @@
         <v>320</v>
       </c>
       <c r="H129" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="I129" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>786</v>
       </c>
       <c r="E130" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F130" t="s">
         <v>787</v>
@@ -6712,13 +6712,13 @@
         <v>32</v>
       </c>
       <c r="H130" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="I130" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>788</v>
       </c>
       <c r="E131" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F131" t="s">
         <v>789</v>
@@ -6738,13 +6738,13 @@
         <v>56</v>
       </c>
       <c r="H131" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="I131" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>321</v>
       </c>
       <c r="E132" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F132" t="s">
         <v>322</v>
@@ -6764,13 +6764,13 @@
         <v>323</v>
       </c>
       <c r="H132" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="I132" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>324</v>
       </c>
       <c r="E133" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F133" t="s">
         <v>325</v>
@@ -6790,13 +6790,13 @@
         <v>326</v>
       </c>
       <c r="H133" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="I133" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>327</v>
       </c>
       <c r="E134" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F134" t="s">
         <v>328</v>
@@ -6816,19 +6816,19 @@
         <v>329</v>
       </c>
       <c r="H134" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="I134" t="s">
         <v>845</v>
       </c>
       <c r="K134" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="L134" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>330</v>
       </c>
       <c r="E135" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F135" t="s">
         <v>331</v>
@@ -6848,13 +6848,13 @@
         <v>332</v>
       </c>
       <c r="H135" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="I135" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>333</v>
       </c>
       <c r="E136" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F136" t="s">
         <v>334</v>
@@ -6874,13 +6874,13 @@
         <v>171</v>
       </c>
       <c r="H136" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="I136" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>335</v>
       </c>
       <c r="E137" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F137" t="s">
         <v>336</v>
@@ -6900,13 +6900,13 @@
         <v>337</v>
       </c>
       <c r="H137" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="I137" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>338</v>
       </c>
       <c r="E138" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F138" t="s">
         <v>339</v>
@@ -6926,13 +6926,13 @@
         <v>32</v>
       </c>
       <c r="H138" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="I138" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>340</v>
       </c>
       <c r="E139" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F139" t="s">
         <v>341</v>
@@ -6952,13 +6952,13 @@
         <v>56</v>
       </c>
       <c r="H139" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="I139" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>342</v>
       </c>
       <c r="E140" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F140" t="s">
         <v>343</v>
@@ -6978,13 +6978,13 @@
         <v>344</v>
       </c>
       <c r="H140" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="I140" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>345</v>
       </c>
       <c r="E141" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F141" t="s">
         <v>346</v>
@@ -7004,13 +7004,13 @@
         <v>216</v>
       </c>
       <c r="H141" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="I141" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>347</v>
       </c>
       <c r="E142" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F142" t="s">
         <v>348</v>
@@ -7030,13 +7030,13 @@
         <v>349</v>
       </c>
       <c r="H142" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="I142" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>350</v>
       </c>
       <c r="E143" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F143" t="s">
         <v>351</v>
@@ -7056,13 +7056,13 @@
         <v>352</v>
       </c>
       <c r="H143" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="I143" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>353</v>
       </c>
       <c r="E144" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F144" t="s">
         <v>354</v>
@@ -7082,13 +7082,13 @@
         <v>355</v>
       </c>
       <c r="H144" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="I144" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>356</v>
       </c>
       <c r="E145" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F145" t="s">
         <v>357</v>
@@ -7108,13 +7108,13 @@
         <v>358</v>
       </c>
       <c r="H145" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="I145" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>359</v>
       </c>
       <c r="E146" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F146" t="s">
         <v>360</v>
@@ -7134,13 +7134,13 @@
         <v>140</v>
       </c>
       <c r="H146" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="I146" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>361</v>
       </c>
       <c r="E147" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F147" t="s">
         <v>362</v>
@@ -7160,13 +7160,13 @@
         <v>140</v>
       </c>
       <c r="H147" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="I147" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>363</v>
       </c>
       <c r="E148" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F148" t="s">
         <v>364</v>
@@ -7186,13 +7186,13 @@
         <v>365</v>
       </c>
       <c r="H148" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="I148" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>366</v>
       </c>
       <c r="E149" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F149" t="s">
         <v>819</v>
@@ -7212,13 +7212,13 @@
         <v>64</v>
       </c>
       <c r="H149" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="I149" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>367</v>
       </c>
       <c r="E150" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F150" t="s">
         <v>368</v>
@@ -7238,13 +7238,13 @@
         <v>369</v>
       </c>
       <c r="H150" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="I150" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>370</v>
       </c>
       <c r="E151" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F151" t="s">
         <v>371</v>
@@ -7264,13 +7264,13 @@
         <v>32</v>
       </c>
       <c r="H151" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="I151" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>372</v>
       </c>
       <c r="E152" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F152" t="s">
         <v>373</v>
@@ -7290,13 +7290,13 @@
         <v>374</v>
       </c>
       <c r="H152" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="I152" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>375</v>
       </c>
       <c r="E153" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F153" t="s">
         <v>376</v>
@@ -7316,13 +7316,13 @@
         <v>377</v>
       </c>
       <c r="H153" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="I153" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>378</v>
       </c>
       <c r="E154" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F154" t="s">
         <v>379</v>
@@ -7342,13 +7342,13 @@
         <v>380</v>
       </c>
       <c r="H154" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="I154" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>381</v>
       </c>
       <c r="E155" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F155" t="s">
         <v>382</v>
@@ -7368,13 +7368,13 @@
         <v>383</v>
       </c>
       <c r="H155" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="I155" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>384</v>
       </c>
       <c r="E156" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F156" t="s">
         <v>385</v>
@@ -7394,13 +7394,13 @@
         <v>32</v>
       </c>
       <c r="H156" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="I156" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>386</v>
       </c>
       <c r="E157" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F157" t="s">
         <v>766</v>
@@ -7420,13 +7420,13 @@
         <v>387</v>
       </c>
       <c r="H157" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="I157" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>388</v>
       </c>
       <c r="E158" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F158" t="s">
         <v>389</v>
@@ -7446,13 +7446,13 @@
         <v>390</v>
       </c>
       <c r="H158" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="I158" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>391</v>
       </c>
       <c r="E159" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F159" t="s">
         <v>392</v>
@@ -7472,13 +7472,13 @@
         <v>174</v>
       </c>
       <c r="H159" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="I159" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>393</v>
       </c>
       <c r="E160" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F160" t="s">
         <v>767</v>
@@ -7498,13 +7498,13 @@
         <v>394</v>
       </c>
       <c r="H160" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="I160" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>395</v>
       </c>
       <c r="E161" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F161" t="s">
         <v>396</v>
@@ -7524,13 +7524,13 @@
         <v>25</v>
       </c>
       <c r="H161" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="I161" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>397</v>
       </c>
       <c r="E162" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F162" t="s">
         <v>398</v>
@@ -7550,13 +7550,13 @@
         <v>399</v>
       </c>
       <c r="H162" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="I162" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>794</v>
       </c>
       <c r="E163" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F163" t="s">
         <v>795</v>
@@ -7576,13 +7576,13 @@
         <v>32</v>
       </c>
       <c r="H163" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="I163" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>400</v>
       </c>
       <c r="E164" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F164" t="s">
         <v>401</v>
@@ -7602,13 +7602,13 @@
         <v>227</v>
       </c>
       <c r="H164" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="I164" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>402</v>
       </c>
       <c r="E165" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F165" t="s">
         <v>403</v>
@@ -7628,13 +7628,13 @@
         <v>32</v>
       </c>
       <c r="H165" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="I165" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>404</v>
       </c>
       <c r="E166" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F166" t="s">
         <v>405</v>
@@ -7660,7 +7660,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>406</v>
       </c>
       <c r="E167" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F167" t="s">
         <v>407</v>
@@ -7686,7 +7686,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>408</v>
       </c>
       <c r="E168" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F168" t="s">
         <v>409</v>
@@ -7706,13 +7706,13 @@
         <v>123</v>
       </c>
       <c r="H168" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="I168" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>410</v>
       </c>
       <c r="E169" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F169" t="s">
         <v>411</v>
@@ -7732,13 +7732,13 @@
         <v>412</v>
       </c>
       <c r="H169" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="I169" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>413</v>
       </c>
       <c r="E170" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F170" t="s">
         <v>414</v>
@@ -7758,13 +7758,13 @@
         <v>32</v>
       </c>
       <c r="H170" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="I170" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>415</v>
       </c>
       <c r="E171" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F171" t="s">
         <v>416</v>
@@ -7784,13 +7784,13 @@
         <v>29</v>
       </c>
       <c r="H171" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="I171" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>417</v>
       </c>
       <c r="E172" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F172" t="s">
         <v>418</v>
@@ -7810,13 +7810,13 @@
         <v>419</v>
       </c>
       <c r="H172" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="I172" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>420</v>
       </c>
       <c r="E173" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F173" t="s">
         <v>820</v>
@@ -7836,13 +7836,13 @@
         <v>421</v>
       </c>
       <c r="H173" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="I173" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>422</v>
       </c>
       <c r="E174" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F174" t="s">
         <v>423</v>
@@ -7862,13 +7862,13 @@
         <v>424</v>
       </c>
       <c r="H174" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="I174" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>425</v>
       </c>
       <c r="E175" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F175" t="s">
         <v>426</v>
@@ -7888,13 +7888,13 @@
         <v>29</v>
       </c>
       <c r="H175" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="I175" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>427</v>
       </c>
       <c r="E176" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F176" t="s">
         <v>428</v>
@@ -7914,13 +7914,13 @@
         <v>429</v>
       </c>
       <c r="H176" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="I176" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>430</v>
       </c>
       <c r="E177" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F177" t="s">
         <v>431</v>
@@ -7940,13 +7940,13 @@
         <v>432</v>
       </c>
       <c r="H177" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="I177" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>433</v>
       </c>
       <c r="E178" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F178" t="s">
         <v>434</v>
@@ -7966,13 +7966,13 @@
         <v>32</v>
       </c>
       <c r="H178" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="I178" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>435</v>
       </c>
       <c r="E179" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F179" t="s">
         <v>436</v>
@@ -7992,13 +7992,13 @@
         <v>437</v>
       </c>
       <c r="H179" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="I179" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>438</v>
       </c>
       <c r="E180" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F180" t="s">
         <v>439</v>
@@ -8018,13 +8018,13 @@
         <v>440</v>
       </c>
       <c r="H180" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="I180" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>441</v>
       </c>
       <c r="E181" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F181" t="s">
         <v>442</v>
@@ -8044,13 +8044,13 @@
         <v>204</v>
       </c>
       <c r="H181" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="I181" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>443</v>
       </c>
       <c r="E182" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F182" t="s">
         <v>444</v>
@@ -8070,13 +8070,13 @@
         <v>445</v>
       </c>
       <c r="H182" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="I182" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>446</v>
       </c>
       <c r="E183" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F183" t="s">
         <v>447</v>
@@ -8096,13 +8096,13 @@
         <v>448</v>
       </c>
       <c r="H183" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="I183" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>449</v>
       </c>
       <c r="E184" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F184" t="s">
         <v>450</v>
@@ -8122,13 +8122,13 @@
         <v>451</v>
       </c>
       <c r="H184" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="I184" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>452</v>
       </c>
       <c r="E185" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F185" t="s">
         <v>453</v>
@@ -8148,13 +8148,13 @@
         <v>454</v>
       </c>
       <c r="H185" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="I185" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>455</v>
       </c>
       <c r="E186" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F186" t="s">
         <v>456</v>
@@ -8174,13 +8174,13 @@
         <v>457</v>
       </c>
       <c r="H186" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="I186" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>458</v>
       </c>
       <c r="E187" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F187" t="s">
         <v>459</v>
@@ -8200,13 +8200,13 @@
         <v>460</v>
       </c>
       <c r="H187" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="I187" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>461</v>
       </c>
       <c r="E188" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F188" t="s">
         <v>462</v>
@@ -8226,13 +8226,13 @@
         <v>32</v>
       </c>
       <c r="H188" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="I188" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>463</v>
       </c>
       <c r="E189" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F189" t="s">
         <v>464</v>
@@ -8252,13 +8252,13 @@
         <v>465</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="I189" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>466</v>
       </c>
       <c r="E190" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F190" t="s">
         <v>467</v>
@@ -8278,13 +8278,13 @@
         <v>468</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="I190" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>469</v>
       </c>
       <c r="E191" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F191" t="s">
         <v>821</v>
@@ -8304,13 +8304,13 @@
         <v>56</v>
       </c>
       <c r="H191" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="I191" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>470</v>
       </c>
       <c r="E192" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F192" t="s">
         <v>471</v>
@@ -8330,13 +8330,13 @@
         <v>472</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="I192" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>473</v>
       </c>
       <c r="E193" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F193" t="s">
         <v>474</v>
@@ -8356,13 +8356,13 @@
         <v>151</v>
       </c>
       <c r="H193" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="I193" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>475</v>
       </c>
       <c r="E194" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F194" t="s">
         <v>476</v>
@@ -8382,13 +8382,13 @@
         <v>72</v>
       </c>
       <c r="H194" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="I194" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>477</v>
       </c>
       <c r="E195" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F195" t="s">
         <v>478</v>
@@ -8408,13 +8408,13 @@
         <v>479</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="I195" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>480</v>
       </c>
       <c r="E196" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F196" t="s">
         <v>481</v>
@@ -8434,13 +8434,13 @@
         <v>482</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="I196" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>483</v>
       </c>
       <c r="E197" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F197" t="s">
         <v>484</v>
@@ -8460,13 +8460,13 @@
         <v>485</v>
       </c>
       <c r="H197" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="I197" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>486</v>
       </c>
       <c r="E198" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F198" t="s">
         <v>487</v>
@@ -8486,13 +8486,13 @@
         <v>488</v>
       </c>
       <c r="H198" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="I198" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>490</v>
       </c>
       <c r="E199" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F199" t="s">
         <v>491</v>
@@ -8515,13 +8515,13 @@
         <v>171</v>
       </c>
       <c r="H199" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="I199" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>492</v>
       </c>
       <c r="E200" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F200" t="s">
         <v>493</v>
@@ -8541,13 +8541,13 @@
         <v>204</v>
       </c>
       <c r="H200" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="I200" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>494</v>
       </c>
       <c r="E201" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F201" t="s">
         <v>495</v>
@@ -8567,13 +8567,13 @@
         <v>496</v>
       </c>
       <c r="H201" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="I201" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>497</v>
       </c>
       <c r="E202" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F202" t="s">
         <v>498</v>
@@ -8593,13 +8593,13 @@
         <v>499</v>
       </c>
       <c r="H202" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="I202" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>500</v>
       </c>
       <c r="E203" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F203" t="s">
         <v>501</v>
@@ -8619,13 +8619,13 @@
         <v>502</v>
       </c>
       <c r="H203" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="I203" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>503</v>
       </c>
       <c r="E204" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F204" t="s">
         <v>504</v>
@@ -8645,13 +8645,13 @@
         <v>505</v>
       </c>
       <c r="H204" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="I204" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>506</v>
       </c>
       <c r="E205" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F205" t="s">
         <v>507</v>
@@ -8671,13 +8671,13 @@
         <v>508</v>
       </c>
       <c r="H205" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="I205" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>509</v>
       </c>
       <c r="E206" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F206" t="s">
         <v>510</v>
@@ -8697,13 +8697,13 @@
         <v>511</v>
       </c>
       <c r="H206" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="I206" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>512</v>
       </c>
       <c r="E207" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F207" t="s">
         <v>513</v>
@@ -8723,13 +8723,13 @@
         <v>514</v>
       </c>
       <c r="H207" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="I207" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>796</v>
       </c>
       <c r="E208" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F208" t="s">
         <v>797</v>
@@ -8749,13 +8749,13 @@
         <v>515</v>
       </c>
       <c r="H208" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="I208" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>516</v>
       </c>
       <c r="E209" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F209" t="s">
         <v>517</v>
@@ -8775,13 +8775,13 @@
         <v>32</v>
       </c>
       <c r="H209" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="I209" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>798</v>
       </c>
       <c r="E210" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F210" t="s">
         <v>799</v>
@@ -8801,13 +8801,13 @@
         <v>800</v>
       </c>
       <c r="H210" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="I210" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>518</v>
       </c>
       <c r="E211" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F211" t="s">
         <v>519</v>
@@ -8827,13 +8827,13 @@
         <v>32</v>
       </c>
       <c r="H211" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="I211" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>520</v>
       </c>
       <c r="E212" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F212" t="s">
         <v>822</v>
@@ -8853,13 +8853,13 @@
         <v>32</v>
       </c>
       <c r="H212" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="I212" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>521</v>
       </c>
       <c r="E213" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F213" t="s">
         <v>522</v>
@@ -8879,13 +8879,13 @@
         <v>140</v>
       </c>
       <c r="H213" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="I213" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>523</v>
       </c>
       <c r="E214" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F214" t="s">
         <v>823</v>
@@ -8905,13 +8905,13 @@
         <v>25</v>
       </c>
       <c r="H214" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="I214" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>524</v>
       </c>
       <c r="E215" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F215" t="s">
         <v>790</v>
@@ -8931,13 +8931,13 @@
         <v>22</v>
       </c>
       <c r="H215" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="I215" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>801</v>
       </c>
       <c r="E216" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F216" t="s">
         <v>802</v>
@@ -8957,13 +8957,13 @@
         <v>74</v>
       </c>
       <c r="H216" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="I216" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>525</v>
       </c>
       <c r="E217" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F217" t="s">
         <v>824</v>
@@ -8983,13 +8983,13 @@
         <v>56</v>
       </c>
       <c r="H217" t="s">
-        <v>929</v>
+        <v>961</v>
       </c>
       <c r="I217" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>526</v>
       </c>
       <c r="E218" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F218" t="s">
         <v>527</v>
@@ -9009,13 +9009,13 @@
         <v>528</v>
       </c>
       <c r="H218" t="s">
-        <v>929</v>
+        <v>961</v>
       </c>
       <c r="I218" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>529</v>
       </c>
       <c r="E219" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F219" t="s">
         <v>530</v>
@@ -9035,13 +9035,13 @@
         <v>56</v>
       </c>
       <c r="H219" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="I219" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>531</v>
       </c>
       <c r="E220" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F220" t="s">
         <v>791</v>
@@ -9061,13 +9061,13 @@
         <v>204</v>
       </c>
       <c r="H220" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="I220" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>532</v>
       </c>
       <c r="E221" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F221" t="s">
         <v>533</v>
@@ -9087,13 +9087,13 @@
         <v>204</v>
       </c>
       <c r="H221" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="I221" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>534</v>
       </c>
       <c r="E222" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F222" t="s">
         <v>792</v>
@@ -9113,13 +9113,13 @@
         <v>56</v>
       </c>
       <c r="H222" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="I222" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>535</v>
       </c>
       <c r="E223" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F223" t="s">
         <v>825</v>
@@ -9139,13 +9139,13 @@
         <v>204</v>
       </c>
       <c r="H223" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="I223" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>536</v>
       </c>
       <c r="E224" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F224" t="s">
         <v>537</v>
@@ -9165,13 +9165,13 @@
         <v>284</v>
       </c>
       <c r="H224" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="I224" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>538</v>
       </c>
       <c r="E225" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F225" t="s">
         <v>539</v>
@@ -9191,13 +9191,13 @@
         <v>540</v>
       </c>
       <c r="H225" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="I225" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>541</v>
       </c>
       <c r="E226" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F226" t="s">
         <v>542</v>
@@ -9217,13 +9217,13 @@
         <v>32</v>
       </c>
       <c r="H226" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="I226" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>543</v>
       </c>
       <c r="E227" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F227" t="s">
         <v>793</v>
@@ -9243,13 +9243,13 @@
         <v>544</v>
       </c>
       <c r="H227" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="I227" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>545</v>
       </c>
       <c r="E228" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F228" t="s">
         <v>546</v>
@@ -9269,7 +9269,7 @@
         <v>547</v>
       </c>
       <c r="H228" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="I228" t="s">
         <v>845</v>
@@ -9278,7 +9278,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>548</v>
       </c>
       <c r="E229" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F229" t="s">
         <v>549</v>
@@ -9298,13 +9298,13 @@
         <v>550</v>
       </c>
       <c r="H229" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="I229" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>551</v>
       </c>
       <c r="E230" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F230" t="s">
         <v>552</v>
@@ -9324,7 +9324,7 @@
         <v>149</v>
       </c>
       <c r="H230" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="I230" t="s">
         <v>845</v>
@@ -9333,7 +9333,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>553</v>
       </c>
       <c r="E231" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F231" t="s">
         <v>554</v>
@@ -9353,7 +9353,7 @@
         <v>555</v>
       </c>
       <c r="H231" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="I231" t="s">
         <v>845</v>
@@ -9362,7 +9362,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>556</v>
       </c>
       <c r="E232" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F232" t="s">
         <v>557</v>
@@ -9382,13 +9382,13 @@
         <v>558</v>
       </c>
       <c r="H232" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="I232" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>559</v>
       </c>
       <c r="E233" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F233" t="s">
         <v>560</v>
@@ -9411,13 +9411,13 @@
         <v>358</v>
       </c>
       <c r="H233" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="I233" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>561</v>
       </c>
       <c r="E234" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F234" t="s">
         <v>562</v>
@@ -9437,13 +9437,13 @@
         <v>563</v>
       </c>
       <c r="H234" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="I234" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>564</v>
       </c>
       <c r="E235" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F235" t="s">
         <v>565</v>
@@ -9463,13 +9463,13 @@
         <v>204</v>
       </c>
       <c r="H235" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="I235" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>566</v>
       </c>
       <c r="E236" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F236" t="s">
         <v>567</v>
@@ -9489,13 +9489,13 @@
         <v>568</v>
       </c>
       <c r="H236" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="I236" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>569</v>
       </c>
       <c r="E237" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F237" t="s">
         <v>570</v>
@@ -9515,13 +9515,13 @@
         <v>72</v>
       </c>
       <c r="H237" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="I237" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>571</v>
       </c>
       <c r="E238" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F238" t="s">
         <v>572</v>
@@ -9541,7 +9541,7 @@
         <v>390</v>
       </c>
       <c r="H238" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="I238" t="s">
         <v>845</v>
@@ -9550,7 +9550,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>573</v>
       </c>
       <c r="E239" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F239" t="s">
         <v>826</v>
@@ -9570,13 +9570,13 @@
         <v>394</v>
       </c>
       <c r="H239" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="I239" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>574</v>
       </c>
       <c r="E240" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F240" t="s">
         <v>575</v>
@@ -9596,13 +9596,13 @@
         <v>80</v>
       </c>
       <c r="H240" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="I240" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>576</v>
       </c>
       <c r="E241" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F241" t="s">
         <v>577</v>
@@ -9622,13 +9622,13 @@
         <v>56</v>
       </c>
       <c r="H241" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="I241" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>578</v>
       </c>
       <c r="E242" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F242" t="s">
         <v>579</v>
@@ -9648,13 +9648,13 @@
         <v>32</v>
       </c>
       <c r="H242" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="I242" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>580</v>
       </c>
       <c r="E243" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F243" t="s">
         <v>827</v>
@@ -9674,13 +9674,13 @@
         <v>56</v>
       </c>
       <c r="H243" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="I243" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>581</v>
       </c>
       <c r="E244" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F244" t="s">
         <v>582</v>
@@ -9700,13 +9700,13 @@
         <v>56</v>
       </c>
       <c r="H244" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="I244" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>583</v>
       </c>
       <c r="E245" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F245" t="s">
         <v>584</v>
@@ -9726,13 +9726,13 @@
         <v>64</v>
       </c>
       <c r="H245" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="I245" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>585</v>
       </c>
       <c r="E246" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F246" t="s">
         <v>586</v>
@@ -9752,13 +9752,13 @@
         <v>540</v>
       </c>
       <c r="H246" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="I246" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>587</v>
       </c>
       <c r="E247" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F247" t="s">
         <v>588</v>
@@ -9778,13 +9778,13 @@
         <v>589</v>
       </c>
       <c r="H247" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="I247" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>590</v>
       </c>
       <c r="E248" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F248" t="s">
         <v>591</v>
@@ -9804,13 +9804,13 @@
         <v>592</v>
       </c>
       <c r="H248" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="I248" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>593</v>
       </c>
       <c r="E249" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F249" t="s">
         <v>594</v>
@@ -9830,13 +9830,13 @@
         <v>210</v>
       </c>
       <c r="H249" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="I249" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>595</v>
       </c>
       <c r="E250" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F250" t="s">
         <v>596</v>
@@ -9856,13 +9856,13 @@
         <v>32</v>
       </c>
       <c r="H250" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="I250" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>597</v>
       </c>
       <c r="E251" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F251" t="s">
         <v>829</v>
@@ -9882,13 +9882,13 @@
         <v>103</v>
       </c>
       <c r="H251" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="I251" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>598</v>
       </c>
       <c r="E252" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F252" t="s">
         <v>828</v>
@@ -9908,13 +9908,13 @@
         <v>599</v>
       </c>
       <c r="H252" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="I252" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>600</v>
       </c>
       <c r="E253" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F253" t="s">
         <v>601</v>
@@ -9934,13 +9934,13 @@
         <v>210</v>
       </c>
       <c r="H253" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="I253" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>602</v>
       </c>
       <c r="E254" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F254" t="s">
         <v>603</v>
@@ -9960,13 +9960,13 @@
         <v>210</v>
       </c>
       <c r="H254" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="I254" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>604</v>
       </c>
       <c r="E255" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F255" t="s">
         <v>605</v>
@@ -9986,13 +9986,13 @@
         <v>32</v>
       </c>
       <c r="H255" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="I255" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>606</v>
       </c>
       <c r="E256" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F256" t="s">
         <v>607</v>
@@ -10012,13 +10012,13 @@
         <v>227</v>
       </c>
       <c r="H256" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="I256" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>608</v>
       </c>
       <c r="E257" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F257" t="s">
         <v>830</v>
@@ -10038,13 +10038,13 @@
         <v>32</v>
       </c>
       <c r="H257" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="I257" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -10055,19 +10055,19 @@
         <v>609</v>
       </c>
       <c r="E258" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F258" t="s">
         <v>831</v>
       </c>
       <c r="H258" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="I258" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>610</v>
       </c>
       <c r="E259" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F259" t="s">
         <v>611</v>
@@ -10087,13 +10087,13 @@
         <v>612</v>
       </c>
       <c r="H259" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="I259" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>613</v>
       </c>
       <c r="E260" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F260" t="s">
         <v>832</v>
@@ -10113,13 +10113,13 @@
         <v>22</v>
       </c>
       <c r="H260" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="I260" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>614</v>
       </c>
       <c r="E261" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F261" t="s">
         <v>615</v>
@@ -10139,13 +10139,13 @@
         <v>616</v>
       </c>
       <c r="H261" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="I261" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>617</v>
       </c>
       <c r="E262" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F262" t="s">
         <v>618</v>
@@ -10165,13 +10165,13 @@
         <v>619</v>
       </c>
       <c r="H262" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="I262" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>620</v>
       </c>
       <c r="E263" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F263" t="s">
         <v>621</v>
@@ -10191,13 +10191,13 @@
         <v>32</v>
       </c>
       <c r="H263" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="I263" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>622</v>
       </c>
       <c r="E264" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F264" t="s">
         <v>623</v>
@@ -10217,13 +10217,13 @@
         <v>624</v>
       </c>
       <c r="H264" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="I264" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>625</v>
       </c>
       <c r="E265" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F265" t="s">
         <v>626</v>
@@ -10243,13 +10243,13 @@
         <v>159</v>
       </c>
       <c r="H265" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="I265" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>627</v>
       </c>
       <c r="E266" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F266" t="s">
         <v>628</v>
@@ -10269,13 +10269,13 @@
         <v>629</v>
       </c>
       <c r="H266" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="I266" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>630</v>
       </c>
       <c r="E267" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F267" t="s">
         <v>631</v>
@@ -10295,13 +10295,13 @@
         <v>369</v>
       </c>
       <c r="H267" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="I267" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>632</v>
       </c>
       <c r="E268" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F268" t="s">
         <v>633</v>
@@ -10321,13 +10321,13 @@
         <v>204</v>
       </c>
       <c r="H268" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="I268" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>634</v>
       </c>
       <c r="E269" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F269" t="s">
         <v>635</v>
@@ -10347,13 +10347,13 @@
         <v>636</v>
       </c>
       <c r="H269" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="I269" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>637</v>
       </c>
       <c r="E270" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F270" t="s">
         <v>638</v>
@@ -10373,13 +10373,13 @@
         <v>159</v>
       </c>
       <c r="H270" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="I270" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>639</v>
       </c>
       <c r="E271" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F271" t="s">
         <v>640</v>
@@ -10399,13 +10399,13 @@
         <v>641</v>
       </c>
       <c r="H271" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="I271" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -10416,19 +10416,19 @@
         <v>642</v>
       </c>
       <c r="E272" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F272" t="s">
         <v>643</v>
       </c>
       <c r="H272" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="I272" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>644</v>
       </c>
       <c r="E273" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F273" t="s">
         <v>645</v>
@@ -10448,13 +10448,13 @@
         <v>238</v>
       </c>
       <c r="H273" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="I273" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>646</v>
       </c>
       <c r="E274" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F274" t="s">
         <v>647</v>
@@ -10474,13 +10474,13 @@
         <v>159</v>
       </c>
       <c r="H274" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="I274" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>648</v>
       </c>
       <c r="E275" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F275" t="s">
         <v>649</v>
@@ -10500,13 +10500,13 @@
         <v>159</v>
       </c>
       <c r="H275" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="I275" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>650</v>
       </c>
       <c r="E276" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F276" t="s">
         <v>834</v>
@@ -10526,13 +10526,13 @@
         <v>833</v>
       </c>
       <c r="H276" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="I276" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>651</v>
       </c>
       <c r="E277" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F277" t="s">
         <v>837</v>
@@ -10552,13 +10552,13 @@
         <v>835</v>
       </c>
       <c r="H277" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="I277" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>652</v>
       </c>
       <c r="E278" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F278" t="s">
         <v>838</v>
@@ -10578,13 +10578,13 @@
         <v>836</v>
       </c>
       <c r="H278" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="I278" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>653</v>
       </c>
       <c r="E279" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F279" t="s">
         <v>654</v>
@@ -10604,13 +10604,13 @@
         <v>641</v>
       </c>
       <c r="H279" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="I279" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>803</v>
       </c>
       <c r="E280" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F280" t="s">
         <v>804</v>
@@ -10630,13 +10630,13 @@
         <v>56</v>
       </c>
       <c r="H280" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I280" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>655</v>
       </c>
       <c r="E281" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F281" t="s">
         <v>656</v>
@@ -10656,13 +10656,13 @@
         <v>269</v>
       </c>
       <c r="H281" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="I281" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>657</v>
       </c>
       <c r="E282" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F282" t="s">
         <v>658</v>
@@ -10682,13 +10682,13 @@
         <v>204</v>
       </c>
       <c r="H282" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="I282" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>659</v>
       </c>
       <c r="E283" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F283" t="s">
         <v>660</v>
@@ -10708,13 +10708,13 @@
         <v>661</v>
       </c>
       <c r="H283" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I283" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>662</v>
       </c>
       <c r="E284" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F284" t="s">
         <v>663</v>
@@ -10734,13 +10734,13 @@
         <v>664</v>
       </c>
       <c r="H284" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I284" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>665</v>
       </c>
       <c r="E285" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F285" t="s">
         <v>666</v>
@@ -10760,13 +10760,13 @@
         <v>32</v>
       </c>
       <c r="H285" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I285" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>667</v>
       </c>
       <c r="E286" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F286" t="s">
         <v>668</v>
@@ -10789,13 +10789,13 @@
         <v>159</v>
       </c>
       <c r="H286" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I286" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>669</v>
       </c>
       <c r="E287" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F287" t="s">
         <v>670</v>
@@ -10815,13 +10815,13 @@
         <v>32</v>
       </c>
       <c r="H287" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="I287" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>671</v>
       </c>
       <c r="E288" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F288" t="s">
         <v>672</v>
@@ -10841,13 +10841,13 @@
         <v>673</v>
       </c>
       <c r="H288" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="I288" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>674</v>
       </c>
       <c r="E289" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F289" t="s">
         <v>675</v>
@@ -10867,13 +10867,13 @@
         <v>32</v>
       </c>
       <c r="H289" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="I289" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>676</v>
       </c>
       <c r="E290" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F290" t="s">
         <v>677</v>
@@ -10893,13 +10893,13 @@
         <v>204</v>
       </c>
       <c r="H290" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="I290" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>678</v>
       </c>
       <c r="E291" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F291" t="s">
         <v>679</v>
@@ -10919,13 +10919,13 @@
         <v>680</v>
       </c>
       <c r="H291" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="I291" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>681</v>
       </c>
       <c r="E292" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F292" t="s">
         <v>682</v>
@@ -10945,13 +10945,13 @@
         <v>394</v>
       </c>
       <c r="H292" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="I292" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>683</v>
       </c>
       <c r="E293" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F293" t="s">
         <v>684</v>
@@ -10971,13 +10971,13 @@
         <v>685</v>
       </c>
       <c r="H293" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="I293" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>686</v>
       </c>
       <c r="E294" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F294" t="s">
         <v>687</v>
@@ -10997,13 +10997,13 @@
         <v>688</v>
       </c>
       <c r="H294" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="I294" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>689</v>
       </c>
       <c r="E295" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F295" t="s">
         <v>690</v>
@@ -11023,7 +11023,7 @@
         <v>691</v>
       </c>
       <c r="H295" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="I295" t="s">
         <v>845</v>
@@ -11032,7 +11032,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>692</v>
       </c>
       <c r="E296" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F296" t="s">
         <v>693</v>
@@ -11052,7 +11052,7 @@
         <v>67</v>
       </c>
       <c r="H296" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="I296" t="s">
         <v>845</v>
@@ -11061,7 +11061,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>694</v>
       </c>
       <c r="E297" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F297" t="s">
         <v>695</v>
@@ -11081,7 +11081,7 @@
         <v>696</v>
       </c>
       <c r="H297" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="I297" t="s">
         <v>845</v>
@@ -11090,7 +11090,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>697</v>
       </c>
       <c r="E298" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F298" t="s">
         <v>698</v>
@@ -11110,7 +11110,7 @@
         <v>699</v>
       </c>
       <c r="H298" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="I298" t="s">
         <v>845</v>
@@ -11119,7 +11119,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>700</v>
       </c>
       <c r="E299" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F299" t="s">
         <v>701</v>
@@ -11139,7 +11139,7 @@
         <v>56</v>
       </c>
       <c r="H299" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="I299" t="s">
         <v>845</v>
@@ -11148,7 +11148,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>702</v>
       </c>
       <c r="E300" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F300" t="s">
         <v>703</v>
@@ -11168,7 +11168,7 @@
         <v>704</v>
       </c>
       <c r="H300" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="I300" t="s">
         <v>845</v>
@@ -11177,7 +11177,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>705</v>
       </c>
       <c r="E301" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F301" t="s">
         <v>706</v>
@@ -11197,7 +11197,7 @@
         <v>707</v>
       </c>
       <c r="H301" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="I301" t="s">
         <v>845</v>
@@ -11206,7 +11206,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>708</v>
       </c>
       <c r="E302" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F302" t="s">
         <v>709</v>
@@ -11226,13 +11226,13 @@
         <v>29</v>
       </c>
       <c r="H302" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="I302" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>710</v>
       </c>
       <c r="E303" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F303" t="s">
         <v>711</v>
@@ -11252,13 +11252,13 @@
         <v>32</v>
       </c>
       <c r="H303" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="I303" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>712</v>
       </c>
       <c r="E304" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F304" t="s">
         <v>713</v>
@@ -11278,13 +11278,13 @@
         <v>714</v>
       </c>
       <c r="H304" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="I304" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>715</v>
       </c>
       <c r="E305" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F305" t="s">
         <v>716</v>
@@ -11304,13 +11304,13 @@
         <v>204</v>
       </c>
       <c r="H305" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="I305" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>717</v>
       </c>
       <c r="E306" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F306" t="s">
         <v>718</v>
@@ -11330,13 +11330,13 @@
         <v>117</v>
       </c>
       <c r="H306" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="I306" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>719</v>
       </c>
       <c r="E307" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F307" t="s">
         <v>839</v>
@@ -11356,19 +11356,19 @@
         <v>720</v>
       </c>
       <c r="H307" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="I307" t="s">
         <v>845</v>
       </c>
       <c r="K307" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="L307" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>721</v>
       </c>
       <c r="E308" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F308" t="s">
         <v>840</v>
@@ -11388,19 +11388,19 @@
         <v>704</v>
       </c>
       <c r="H308" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="I308" t="s">
         <v>845</v>
       </c>
       <c r="K308" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="L308" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>722</v>
       </c>
       <c r="E309" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F309" t="s">
         <v>723</v>
@@ -11420,13 +11420,13 @@
         <v>29</v>
       </c>
       <c r="H309" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="I309" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>0</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>724</v>
       </c>
       <c r="E310" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F310" t="s">
         <v>725</v>
@@ -11446,13 +11446,13 @@
         <v>204</v>
       </c>
       <c r="H310" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I310" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>726</v>
       </c>
       <c r="E311" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F311" t="s">
         <v>727</v>
@@ -11472,13 +11472,13 @@
         <v>728</v>
       </c>
       <c r="H311" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="I311" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>729</v>
       </c>
       <c r="E312" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F312" t="s">
         <v>841</v>
@@ -11498,13 +11498,13 @@
         <v>29</v>
       </c>
       <c r="H312" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="I312" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>730</v>
       </c>
       <c r="E313" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F313" t="s">
         <v>731</v>
@@ -11524,13 +11524,13 @@
         <v>103</v>
       </c>
       <c r="H313" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="I313" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>732</v>
       </c>
       <c r="E314" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F314" t="s">
         <v>733</v>
@@ -11550,13 +11550,13 @@
         <v>227</v>
       </c>
       <c r="H314" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="I314" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>734</v>
       </c>
       <c r="E315" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F315" t="s">
         <v>735</v>
@@ -11576,13 +11576,13 @@
         <v>103</v>
       </c>
       <c r="H315" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="I315" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>736</v>
       </c>
       <c r="E316" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F316" t="s">
         <v>737</v>
@@ -11602,13 +11602,13 @@
         <v>32</v>
       </c>
       <c r="H316" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="I316" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>738</v>
       </c>
       <c r="E317" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F317" t="s">
         <v>739</v>
@@ -11628,13 +11628,13 @@
         <v>159</v>
       </c>
       <c r="H317" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="I317" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>2</v>
       </c>
       <c r="E318" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F318" t="s">
         <v>334</v>
@@ -11654,13 +11654,13 @@
         <v>740</v>
       </c>
       <c r="H318" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="I318" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>5</v>
       </c>
       <c r="E319" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F319" t="s">
         <v>741</v>
@@ -11680,13 +11680,13 @@
         <v>742</v>
       </c>
       <c r="H319" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="I319" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>0</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>8</v>
       </c>
       <c r="E320" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F320" t="s">
         <v>743</v>
@@ -11706,13 +11706,13 @@
         <v>744</v>
       </c>
       <c r="H320" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="I320" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>0</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>11</v>
       </c>
       <c r="E321" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F321" t="s">
         <v>336</v>
@@ -11732,31 +11732,31 @@
         <v>337</v>
       </c>
       <c r="H321" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="I321" t="s">
         <v>849</v>
       </c>
       <c r="K321" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L321" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="M321" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="N321" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="O321" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="P321" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>0</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>14</v>
       </c>
       <c r="E322" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F322" t="s">
         <v>745</v>
@@ -11776,13 +11776,13 @@
         <v>746</v>
       </c>
       <c r="H322" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="I322" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>0</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>17</v>
       </c>
       <c r="E323" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F323" t="s">
         <v>842</v>
@@ -11802,19 +11802,19 @@
         <v>768</v>
       </c>
       <c r="H323" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="I323" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="K323" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="L323" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>0</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>20</v>
       </c>
       <c r="E324" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F324" t="s">
         <v>747</v>
@@ -11834,13 +11834,13 @@
         <v>748</v>
       </c>
       <c r="H324" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="I324" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>0</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>23</v>
       </c>
       <c r="E325" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F325" t="s">
         <v>749</v>
@@ -11860,13 +11860,13 @@
         <v>750</v>
       </c>
       <c r="H325" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="I325" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>0</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>26</v>
       </c>
       <c r="E326" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F326" t="s">
         <v>751</v>
@@ -11886,13 +11886,13 @@
         <v>117</v>
       </c>
       <c r="H326" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I326" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>0</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>27</v>
       </c>
       <c r="E327" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F327" t="s">
         <v>843</v>
@@ -11912,13 +11912,13 @@
         <v>769</v>
       </c>
       <c r="H327" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="I327" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>0</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>30</v>
       </c>
       <c r="E328" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F328" t="s">
         <v>752</v>
@@ -11938,13 +11938,13 @@
         <v>753</v>
       </c>
       <c r="H328" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="I328" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>0</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>33</v>
       </c>
       <c r="E329" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F329" t="s">
         <v>754</v>
@@ -11964,13 +11964,13 @@
         <v>696</v>
       </c>
       <c r="H329" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I329" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>0</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>35</v>
       </c>
       <c r="E330" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F330" t="s">
         <v>755</v>
@@ -11990,10 +11990,10 @@
         <v>756</v>
       </c>
       <c r="H330" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I330" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
